--- a/data/trans_dic/P07B_R2_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P07B_R2_2023-Estudios-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.813269341814495</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8421497227012625</v>
+        <v>0.8421497227012624</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8548634519659087</v>
+        <v>0.8549123892419824</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7928165188544709</v>
+        <v>0.7912950176689106</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8264682535356158</v>
+        <v>0.8264390740466778</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9050955002303317</v>
+        <v>0.9064270466605907</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8330605977483807</v>
+        <v>0.8326496026682744</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8585423178292995</v>
+        <v>0.8575507647579131</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.9509010471205319</v>
+        <v>0.9509010471205317</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9237441635107</v>
+        <v>0.9237441635106998</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.937505136280557</v>
+        <v>0.9375051362805571</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9412058158729945</v>
+        <v>0.9403977001074177</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9116884963723468</v>
+        <v>0.9131069138688253</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.930085928649884</v>
+        <v>0.9302287177220548</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9599983178265924</v>
+        <v>0.9604128353300346</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9333355591439139</v>
+        <v>0.9336083478259545</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9444238691021232</v>
+        <v>0.9441569363928956</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9396741813640391</v>
+        <v>0.939674181364039</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.9451306014944885</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9424463197124597</v>
+        <v>0.9424463197124595</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9153283121055569</v>
+        <v>0.9158117588577052</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9264521047723886</v>
+        <v>0.9292711988417423</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9279073278134475</v>
+        <v>0.9282403655793228</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9577628279244961</v>
+        <v>0.9572594863729911</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9595517316291204</v>
+        <v>0.9606957178840198</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9540147470294199</v>
+        <v>0.9542242030399601</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9375047917833141</v>
+        <v>0.9375047917833144</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9036014891872537</v>
+        <v>0.9036014891872536</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9200676138459482</v>
+        <v>0.9200676138459483</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9288128224499128</v>
+        <v>0.9286263583266673</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8947247232336196</v>
+        <v>0.8940902507321181</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9141387339618137</v>
+        <v>0.9139522405411535</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9462512688174417</v>
+        <v>0.9448292227426176</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9115104925052894</v>
+        <v>0.9114378824481068</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9254159005805116</v>
+        <v>0.9257889708717909</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>494563</v>
+        <v>494592</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>651725</v>
+        <v>650475</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1157524</v>
+        <v>1157483</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>523624</v>
+        <v>524394</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>684807</v>
+        <v>684470</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1202446</v>
+        <v>1201057</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2099422</v>
+        <v>2097619</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1979633</v>
+        <v>1982713</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4094200</v>
+        <v>4094829</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>2141340</v>
+        <v>2142264</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>2026637</v>
+        <v>2027230</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4157315</v>
+        <v>4156140</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>651336</v>
+        <v>651680</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>680828</v>
+        <v>682900</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1342185</v>
+        <v>1342666</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>681532</v>
+        <v>681173</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>705152</v>
+        <v>705993</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1379948</v>
+        <v>1380251</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3270056</v>
+        <v>3269399</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3335808</v>
+        <v>3333443</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6626583</v>
+        <v>6625231</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3331451</v>
+        <v>3326444</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3398391</v>
+        <v>3398120</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6708331</v>
+        <v>6711035</v>
       </c>
     </row>
     <row r="20">
